--- a/src/Red_Tilapia_Distribution_Cleaned.xlsx
+++ b/src/Red_Tilapia_Distribution_Cleaned.xlsx
@@ -540,7 +540,7 @@
     <t>Mario Ceasar Y. Caesar</t>
   </si>
   <si>
-    <t>umoy</t>
+    <t>Umoy</t>
   </si>
   <si>
     <t>Jomar H. Hadjerol</t>
@@ -3903,7 +3903,7 @@
       <c r="B73" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5651,8 +5651,8 @@
       <c r="D140" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>13</v>
+      <c r="E140" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F140" s="2">
         <v>1500.0</v>
